--- a/biology/Zoologie/Cambarus_howardi/Cambarus_howardi.xlsx
+++ b/biology/Zoologie/Cambarus_howardi/Cambarus_howardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambarus howardi est une espèce d'écrevisses de la famille des Cambaridae. Elle est endémique des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cambarus howardi a été initialement décrite en 1969 par les biologistes américains Horton Holcombe Hobbs (1914-1994) et Edward T. Hall, Jr (d) sous le taxon Cambarus (Cambarus) howardi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cambarus howardi a été initialement décrite en 1969 par les biologistes américains Horton Holcombe Hobbs (1914-1994) et Edward T. Hall, Jr (d) sous le taxon Cambarus (Cambarus) howardi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, howardi, lui a été donnée en l'honneur de Ralph S. Howard, Jr., de la Georgia Water Quality Control Board[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, howardi, lui a été donnée en l'honneur de Ralph S. Howard, Jr., de la Georgia Water Quality Control Board.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Horton H. Hobbs, Jr et Edward T. Hall, Jr, « New Crayfishes from Georgia (Decapoda, Astacidae) », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 82, no 21,‎ 3 octobre 1969, p. 281-294 (ISSN 0006-324X et 1943-6327, OCLC 1536434, lire en ligne)</t>
         </is>
